--- a/Daily/Ljung_Box/Square Log-Prices/NIKKEI.xlsx
+++ b/Daily/Ljung_Box/Square Log-Prices/NIKKEI.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7989249368126636</v>
+        <v>0.7608661792088726</v>
+      </c>
+      <c r="C2">
+        <v>0.3830575899636779</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.373540309099084</v>
+        <v>1.307725862741058</v>
+      </c>
+      <c r="C3">
+        <v>0.5200330397883877</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.047144869605899</v>
+        <v>1.324141213166516</v>
       </c>
       <c r="C4">
-        <v>0.02466655162336177</v>
+        <v>0.7234086451541644</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.444441955128615</v>
+        <v>1.754962509432536</v>
       </c>
       <c r="C5">
-        <v>0.06572861042611475</v>
+        <v>0.7807110794400544</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.633833893542541</v>
+        <v>2.9751319850633</v>
       </c>
       <c r="C6">
-        <v>0.1308494292179273</v>
+        <v>0.7038199284855483</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6.683197921551145</v>
+        <v>3.46047718698158</v>
       </c>
       <c r="C7">
-        <v>0.1536072503822839</v>
+        <v>0.7492203951408161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.35770131416042</v>
+        <v>3.511751939611993</v>
       </c>
       <c r="C8">
-        <v>0.1953675421602536</v>
+        <v>0.8339791669898583</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.862159399777225</v>
+        <v>4.791583185052892</v>
       </c>
       <c r="C9">
-        <v>0.248376840678005</v>
+        <v>0.7796020638943491</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.503312543173131</v>
+        <v>4.996711184511459</v>
       </c>
       <c r="C10">
-        <v>0.2903081128488503</v>
+        <v>0.8345948601715895</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8.508543664353551</v>
+        <v>5.375948350342742</v>
       </c>
       <c r="C11">
-        <v>0.3854324409350238</v>
+        <v>0.8646922992615451</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10.49061444806591</v>
+        <v>6.574390458354961</v>
       </c>
       <c r="C12">
-        <v>0.3122448248529734</v>
+        <v>0.8324293992655794</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10.99186781810955</v>
+        <v>7.602372931626052</v>
       </c>
       <c r="C13">
-        <v>0.3581519270491334</v>
+        <v>0.815380967219254</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11.05102146910391</v>
+        <v>7.618498849169428</v>
       </c>
       <c r="C14">
-        <v>0.4389988104424592</v>
+        <v>0.8675360790685716</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>11.10389254527489</v>
+        <v>7.792254964890764</v>
       </c>
       <c r="C15">
-        <v>0.520036706381855</v>
+        <v>0.8998657249193465</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12.75854476223186</v>
+        <v>8.722318891758437</v>
       </c>
       <c r="C16">
-        <v>0.4666306802032844</v>
+        <v>0.8915831537018627</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>12.7594451649828</v>
+        <v>8.730290803697299</v>
       </c>
       <c r="C17">
-        <v>0.5455465696668289</v>
+        <v>0.9241035256161783</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>13.80660443100501</v>
+        <v>9.299080247573606</v>
       </c>
       <c r="C18">
-        <v>0.5402444507191351</v>
+        <v>0.9304090773619961</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>13.81341107443286</v>
+        <v>9.352128821117228</v>
       </c>
       <c r="C19">
-        <v>0.6126120702018913</v>
+        <v>0.9510189489081773</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13.90795727989379</v>
+        <v>9.353340594753682</v>
       </c>
       <c r="C20">
-        <v>0.6736062631425839</v>
+        <v>0.9671390500419267</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>13.94824221656624</v>
+        <v>9.370628246476981</v>
       </c>
       <c r="C21">
-        <v>0.7324590005820444</v>
+        <v>0.9782033143803611</v>
       </c>
     </row>
   </sheetData>
